--- a/학습자료/단답형/국어_복습_의미_명사.xlsx
+++ b/학습자료/단답형/국어_복습_의미_명사.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,11 +567,7 @@
           <t>의미_명사</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>파생어</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -589,11 +585,7 @@
           <t>의미_명사</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>파생어</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -611,11 +603,7 @@
           <t>의미_명사</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>파생어</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -634,11 +622,7 @@
           <t>의미_명사</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>파생어</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -929,6 +913,168 @@
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>바다 위에 낀 짙은 안개</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>해미</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>의미_명사</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>사기그릇을 만드는 돌림판의 밑구멍에 끼우는 사기로 된 고리</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>갓모</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>의미_명사</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>일을 꾸려 나가는 사람을 곁에서 거들어 도와줌</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>봉죽</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>의미_명사</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>자식이 커서 부모를 봉양하는 일</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>안갚음</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>의미_명사</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>남이 말하는 앞에서 덩달아 참견하는 말</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>말곁</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>의미_명사</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>떼 지어 으르고 협박함</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>울력성당</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>의미_명사</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>마음에도 없이 겉치레로 하는 말</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>입에 발린 소리</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>의미_명사</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>담은 것이 그릇에 넘치도록 많이</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>안다미로</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>의미_명사</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>나무나 풀에 내려 눈처럼 된 서리</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>상고대</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>의미_명사</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/국어_복습_의미_명사.xlsx
+++ b/학습자료/단답형/국어_복습_의미_명사.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
